--- a/data/trans_orig/P78C4_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P78C4_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD6C6702-F19A-4B8A-ABCD-228A85294C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FA35DFC-0563-4899-8CBE-86A318C40C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{85734710-B89A-42B5-BF0F-60610C6EF0CB}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{769F18FB-2667-42BC-8DEA-69395474C424}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -71,7 +71,7 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>46,29%</t>
+    <t>46,15%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -86,16 +86,16 @@
     <t>100%</t>
   </si>
   <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>53,71%</t>
+    <t>53,85%</t>
   </si>
   <si>
     <t>0%</t>
@@ -104,61 +104,61 @@
     <t>44,41%</t>
   </si>
   <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
   </si>
   <si>
     <t>Secundarios</t>
   </si>
   <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -170,7 +170,7 @@
     <t>56,93%</t>
   </si>
   <si>
-    <t>41,24%</t>
+    <t>38,8%</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -179,61 +179,61 @@
     <t>43,07%</t>
   </si>
   <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
   </si>
   <si>
     <t>93,8%</t>
   </si>
   <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
   </si>
   <si>
     <t>6,2%</t>
   </si>
   <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -648,7 +648,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952C26C3-E2B1-4964-AB54-0C434DAE6950}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB6EDA3F-E194-41DF-8543-9523DC5DD7C7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -769,7 +769,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>924</v>
+        <v>885</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -784,7 +784,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>2034</v>
+        <v>1902</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>13</v>
@@ -799,7 +799,7 @@
         <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>2958</v>
+        <v>2787</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -820,7 +820,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>1072</v>
+        <v>1033</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -850,7 +850,7 @@
         <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>1072</v>
+        <v>1033</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>22</v>
@@ -871,7 +871,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>1996</v>
+        <v>1918</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>15</v>
@@ -886,7 +886,7 @@
         <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>2034</v>
+        <v>1902</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>15</v>
@@ -901,7 +901,7 @@
         <v>5</v>
       </c>
       <c r="N6" s="7">
-        <v>4030</v>
+        <v>3820</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>15</v>
@@ -924,7 +924,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>6072</v>
+        <v>5868</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>25</v>
@@ -939,7 +939,7 @@
         <v>9</v>
       </c>
       <c r="I7" s="7">
-        <v>8219</v>
+        <v>7694</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>28</v>
@@ -954,7 +954,7 @@
         <v>14</v>
       </c>
       <c r="N7" s="7">
-        <v>14291</v>
+        <v>13562</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>30</v>
@@ -975,7 +975,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="7">
-        <v>9025</v>
+        <v>9632</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>33</v>
@@ -990,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>919</v>
+        <v>853</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>36</v>
@@ -1005,7 +1005,7 @@
         <v>6</v>
       </c>
       <c r="N8" s="7">
-        <v>9944</v>
+        <v>10486</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>38</v>
@@ -1026,7 +1026,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="7">
-        <v>15097</v>
+        <v>15500</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>15</v>
@@ -1041,7 +1041,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="7">
-        <v>9138</v>
+        <v>8547</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>15</v>
@@ -1056,7 +1056,7 @@
         <v>20</v>
       </c>
       <c r="N9" s="7">
-        <v>24235</v>
+        <v>24048</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>15</v>
@@ -1079,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>1191</v>
+        <v>1003</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>13</v>
@@ -1109,7 +1109,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>1191</v>
+        <v>1003</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>44</v>
@@ -1145,7 +1145,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>1697</v>
+        <v>1582</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -1160,7 +1160,7 @@
         <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>1697</v>
+        <v>1582</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>47</v>
@@ -1181,7 +1181,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>1191</v>
+        <v>1003</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>15</v>
@@ -1196,7 +1196,7 @@
         <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>1697</v>
+        <v>1582</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>15</v>
@@ -1211,7 +1211,7 @@
         <v>3</v>
       </c>
       <c r="N12" s="7">
-        <v>2888</v>
+        <v>2585</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>15</v>
@@ -1234,7 +1234,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>8187</v>
+        <v>7756</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>48</v>
@@ -1249,7 +1249,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="7">
-        <v>10252</v>
+        <v>9597</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>51</v>
@@ -1264,7 +1264,7 @@
         <v>19</v>
       </c>
       <c r="N13" s="7">
-        <v>18439</v>
+        <v>17353</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>54</v>
@@ -1285,7 +1285,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="7">
-        <v>10097</v>
+        <v>10665</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>57</v>
@@ -1300,7 +1300,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="7">
-        <v>2616</v>
+        <v>2435</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>60</v>
@@ -1315,7 +1315,7 @@
         <v>9</v>
       </c>
       <c r="N14" s="7">
-        <v>12713</v>
+        <v>13100</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>63</v>
@@ -1336,7 +1336,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="7">
-        <v>18284</v>
+        <v>18421</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>15</v>
@@ -1351,7 +1351,7 @@
         <v>15</v>
       </c>
       <c r="I15" s="7">
-        <v>12868</v>
+        <v>12032</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>15</v>
@@ -1366,7 +1366,7 @@
         <v>28</v>
       </c>
       <c r="N15" s="7">
-        <v>31152</v>
+        <v>30453</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>15</v>
